--- a/TCC00288/src/main/sql/trabalhos/s20181/DanielArena_MarceloNicolaci/avaliacao.xlsx
+++ b/TCC00288/src/main/sql/trabalhos/s20181/DanielArena_MarceloNicolaci/avaliacao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lapaesleme/GitHub/lleme/TCC00288/src/main/sql/trabalhos/s20181/DanielArena_MarceloNicolaci/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0588A3-E208-594A-B82F-C39472767BCC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26584046-D24C-8C4D-8697-83314D7423C1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1560" windowWidth="30820" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="avaliacao" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,61 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Luiz André P Paes Leme</author>
+  </authors>
+  <commentList>
+    <comment ref="E30" authorId="0" shapeId="0" xr:uid="{56D093F0-F8F5-2A41-871E-86183B6DCBDC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Luiz André P Paes Leme:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Mensagem 'Formato não pode ser alterado se algum deck usa ele.' não é valida. Deve ser permitido alterar o formato se os decks não violam regras do formato.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
   <si>
     <t>OBS.: "Algumas restrições podem ser especificadas ao SGBD e impostas automaticamente. Outras podem ter que ser verificadas por programas de atualização ou no momento da entrada de dados. Em geral, para grandes aplicações, é comum chamar essas restrições de regras de negócio." (Elmasri, Ramez. Sistemas de Bancos de Dados (Seção 1.6.8))</t>
   </si>
@@ -152,6 +205,9 @@
   </si>
   <si>
     <t>Tema: Gerente de Eventos de Magic</t>
+  </si>
+  <si>
+    <t>INSERT EM BAIDA</t>
   </si>
 </sst>
 </file>
@@ -163,7 +219,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;?_);_(@_)"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -332,6 +388,25 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1145,21 +1220,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="29" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="31" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="39" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="40" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="38" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -1172,77 +1310,14 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="40" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="38" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="39" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="29" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="31" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1600,11 +1675,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37:F38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1619,30 +1694,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="24" customFormat="1" ht="32" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="67"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="53"/>
     </row>
     <row r="2" spans="1:10" s="23" customFormat="1" ht="129" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
       <c r="E2" s="34"/>
       <c r="F2" s="35" t="s">
         <v>42</v>
       </c>
       <c r="G2" s="36">
-        <f>G34+G39</f>
-        <v>4.32</v>
+        <f>G35+G40</f>
+        <v>5.32</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="33" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1666,15 +1741,15 @@
       <c r="G4" s="47"/>
     </row>
     <row r="5" spans="1:10" ht="71" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="64"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="50"/>
     </row>
     <row r="6" spans="1:10" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
@@ -1700,13 +1775,13 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="73">
+      <c r="B7" s="62">
         <v>2</v>
       </c>
-      <c r="C7" s="70">
+      <c r="C7" s="58">
         <v>0.33</v>
       </c>
       <c r="D7" s="18" t="s">
@@ -1715,26 +1790,26 @@
       <c r="E7" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="69">
+      <c r="F7" s="56">
         <v>1</v>
       </c>
-      <c r="G7" s="68">
+      <c r="G7" s="54">
         <f>B7*C7*F7</f>
         <v>0.66</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="54"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="71"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="19" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="56"/>
-      <c r="G8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="55"/>
     </row>
     <row r="9" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
@@ -1750,13 +1825,13 @@
       <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="52">
+      <c r="B10" s="63">
         <v>2</v>
       </c>
-      <c r="C10" s="55">
+      <c r="C10" s="64">
         <v>1</v>
       </c>
       <c r="D10" s="19" t="s">
@@ -1765,62 +1840,62 @@
       <c r="E10" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="56">
+      <c r="F10" s="57">
         <f>2/4</f>
         <v>0.5</v>
       </c>
-      <c r="G10" s="57">
+      <c r="G10" s="55">
         <f>B10*C10*F10</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="54"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="55"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="19" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="56"/>
-      <c r="G11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="55"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="54"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="55"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="19" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="56"/>
-      <c r="G12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="55"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="54"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="55"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="19" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="56"/>
-      <c r="G13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="55"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="52">
+      <c r="B14" s="63">
         <v>2</v>
       </c>
-      <c r="C14" s="55">
+      <c r="C14" s="64">
         <v>1</v>
       </c>
       <c r="D14" s="19" t="s">
@@ -1829,64 +1904,64 @@
       <c r="E14" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="56">
+      <c r="F14" s="57">
         <f>2/4</f>
         <v>0.5</v>
       </c>
-      <c r="G14" s="57">
+      <c r="G14" s="55">
         <f>B14*C14*F14</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="54"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="55"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="55"/>
       <c r="J15" s="21"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="54"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="55"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="19" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="56"/>
-      <c r="G16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="55"/>
       <c r="J16" s="21"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="54"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="55"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="64"/>
       <c r="D17" s="19" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="56"/>
-      <c r="G17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="55"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="52">
+      <c r="B18" s="63">
         <v>2</v>
       </c>
-      <c r="C18" s="55">
+      <c r="C18" s="64">
         <v>1</v>
       </c>
       <c r="D18" s="19" t="s">
@@ -1895,75 +1970,75 @@
       <c r="E18" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="56">
+      <c r="F18" s="57">
         <f>2/5</f>
         <v>0.4</v>
       </c>
-      <c r="G18" s="57">
+      <c r="G18" s="55">
         <f>B18*C18*F18</f>
         <v>0.8</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="54"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="55"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="64"/>
       <c r="D19" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E19" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="56"/>
-      <c r="G19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="55"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="54"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="55"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="64"/>
       <c r="D20" s="19" t="s">
         <v>21</v>
       </c>
       <c r="E20" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="56"/>
-      <c r="G20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="55"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="54"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="55"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="64"/>
       <c r="D21" s="19" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="56"/>
-      <c r="G21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="55"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="54"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="55"/>
+      <c r="A22" s="61"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="64"/>
       <c r="D22" s="19" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="56"/>
-      <c r="G22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="55"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="52">
+      <c r="B23" s="63">
         <v>2</v>
       </c>
-      <c r="C23" s="55">
+      <c r="C23" s="64">
         <v>1</v>
       </c>
       <c r="D23" s="19" t="s">
@@ -1972,252 +2047,242 @@
       <c r="E23" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="56">
-        <f>2/4</f>
-        <v>0.5</v>
-      </c>
-      <c r="G23" s="57">
+      <c r="F23" s="57">
+        <v>1</v>
+      </c>
+      <c r="G23" s="55">
         <f>B23*C23*F23</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="54"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="55"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="64"/>
       <c r="D24" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E24" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="56"/>
-      <c r="G24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="55"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="54"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="55"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="64"/>
       <c r="D25" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="57"/>
+      <c r="G25" s="55"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="61"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="56"/>
-      <c r="G25" s="57"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="54"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="19" t="s">
+      <c r="E26" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="57"/>
+      <c r="G26" s="55"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="61"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="E26" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="56"/>
-      <c r="G26" s="57"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="52">
-        <v>2</v>
-      </c>
-      <c r="C27" s="55">
-        <v>0.66</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>19</v>
       </c>
       <c r="E27" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="56">
+      <c r="F27" s="57"/>
+      <c r="G27" s="55"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="63">
+        <v>2</v>
+      </c>
+      <c r="C28" s="64">
+        <v>0.66</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="57">
         <f>2/3</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G27" s="57">
-        <f>B27*C27*F27</f>
+      <c r="G28" s="55">
+        <f>B28*C28*F28</f>
         <v>0.88</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="54"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="19" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="61"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="41" t="s">
+      <c r="E29" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="56"/>
-      <c r="G28" s="57"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="54"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="19" t="s">
+      <c r="F29" s="57"/>
+      <c r="G29" s="55"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="61"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="41" t="s">
+      <c r="E30" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="56"/>
-      <c r="G29" s="57"/>
-    </row>
-    <row r="30" spans="1:7" ht="160" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
+      <c r="F30" s="57"/>
+      <c r="G30" s="55"/>
+    </row>
+    <row r="31" spans="1:7" ht="160" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="26" t="s">
+      <c r="B31" s="17"/>
+      <c r="C31" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="15"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="59" t="s">
+      <c r="D31" s="19"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="15"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="53">
+      <c r="B32" s="73">
         <v>2</v>
       </c>
-      <c r="C31" s="58">
+      <c r="C32" s="74">
         <v>0.66</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D32" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="41" t="s">
+      <c r="E32" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="60">
+      <c r="F32" s="65">
         <f>2/3</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G31" s="61">
-        <f>B31*C31*F31</f>
+      <c r="G32" s="66">
+        <f>B32*C32*F32</f>
         <v>0.88</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="54"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="19" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="61"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E32" s="41" t="s">
+      <c r="E33" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="56"/>
-      <c r="G32" s="57"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="59"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="20" t="s">
+      <c r="F33" s="57"/>
+      <c r="G33" s="55"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="75"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="42" t="s">
+      <c r="E34" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="60"/>
-      <c r="G33" s="61"/>
-    </row>
-    <row r="34" spans="1:7" s="25" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="43" t="s">
+      <c r="F34" s="65"/>
+      <c r="G34" s="66"/>
+    </row>
+    <row r="35" spans="1:7" s="25" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="28">
-        <f>SUM(LARGE(G7:G33,1),LARGE(G7:G33,2),LARGE(G7:G33,3))</f>
+      <c r="B35" s="68"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="28">
+        <f>SUM(LARGE(G7:G34,1),LARGE(G7:G34,2),LARGE(G7:G34,3))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="24" x14ac:dyDescent="0.2">
+      <c r="A36" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="47"/>
+    </row>
+    <row r="37" spans="1:7" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="24" x14ac:dyDescent="0.2">
-      <c r="A35" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="47"/>
-    </row>
-    <row r="36" spans="1:7" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="7" t="s">
+      <c r="F37" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G36" s="12" t="s">
+      <c r="G37" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A37" s="14" t="s">
+    <row r="38" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="37">
-        <v>2</v>
-      </c>
-      <c r="C37" s="27">
-        <v>0.33</v>
-      </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="74">
-        <v>1</v>
-      </c>
-      <c r="G37" s="22">
-        <f>B37*C37*F37</f>
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="38">
+      <c r="B38" s="37">
         <v>2</v>
       </c>
       <c r="C38" s="27">
         <v>0.33</v>
       </c>
-      <c r="D38" s="20"/>
+      <c r="D38" s="18"/>
       <c r="E38" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="75">
+      <c r="F38" s="43">
         <v>1</v>
       </c>
       <c r="G38" s="22">
@@ -2225,22 +2290,78 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="25" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="48" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="38">
+        <v>2</v>
+      </c>
+      <c r="C39" s="27">
+        <v>0.33</v>
+      </c>
+      <c r="D39" s="20"/>
+      <c r="E39" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="44">
+        <v>1</v>
+      </c>
+      <c r="G39" s="22">
+        <f>B39*C39*F39</f>
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="25" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="29">
-        <f>SUM(G37:G38)</f>
+      <c r="B40" s="70"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="29">
+        <f>SUM(G38:G39)</f>
         <v>1.32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="F18:F22"/>
+    <mergeCell ref="G18:G22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="G14:G17"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A1:G1"/>
@@ -2249,42 +2370,9 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="C18:C22"/>
-    <mergeCell ref="F18:F22"/>
-    <mergeCell ref="G18:G22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A31:A33"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>